--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8381EA9-EEF4-4C4E-95E9-7D8F6D5B9882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17748CCC-90EE-4EFA-9C43-75E9FBEFFE9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
   <sheets>
     <sheet name="D1_USD" sheetId="6" r:id="rId1"/>
@@ -5709,11 +5709,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:H88"/>
+  <dimension ref="A1:H90"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C89" sqref="C89"/>
+      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C91" sqref="C91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5743,7 +5743,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$300)</f>
-        <v>7.328051901553609E-3</v>
+        <v>6.7494666310637533E-3</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -7082,11 +7082,11 @@
         <v>3.9910321</v>
       </c>
       <c r="D69">
-        <f t="shared" ref="D69:D87" si="34">B69-C69</f>
+        <f t="shared" ref="D69:D89" si="34">B69-C69</f>
         <v>1.7137899999999817E-2</v>
       </c>
       <c r="E69">
-        <f t="shared" ref="E69:E87" si="35">IF(D69&lt;0,1,0)</f>
+        <f t="shared" ref="E69:E89" si="35">IF(D69&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -7452,8 +7452,46 @@
       </c>
     </row>
     <row r="88" spans="1:8">
+      <c r="A88" s="1">
+        <v>45280</v>
+      </c>
+      <c r="B88">
+        <v>3.9370440000000002</v>
+      </c>
       <c r="C88">
         <v>4.0000270000000002</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="34"/>
+        <v>-6.2983000000000011E-2</v>
+      </c>
+      <c r="E88">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="1">
+        <v>45281</v>
+      </c>
+      <c r="B89">
+        <v>3.9678070000000001</v>
+      </c>
+      <c r="C89">
+        <v>3.9410834000000001</v>
+      </c>
+      <c r="D89">
+        <f t="shared" si="34"/>
+        <v>2.6723599999999958E-2</v>
+      </c>
+      <c r="E89">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="C90">
+        <v>3.9743461999999998</v>
       </c>
     </row>
   </sheetData>
@@ -8602,11 +8640,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I362"/>
+  <dimension ref="A1:I364"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A352" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A361" sqref="A361:B361"/>
+      <pane ySplit="1" topLeftCell="A358" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C364" sqref="C364"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8636,7 +8674,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$499)</f>
-        <v>-1.5424001992225321E-2</v>
+        <v>-1.5173271041992032E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -15568,11 +15606,11 @@
         <v>4.2939242999999996</v>
       </c>
       <c r="D360">
-        <f t="shared" ref="D360:D361" si="85">B360-C360</f>
+        <f t="shared" ref="D360:D363" si="85">B360-C360</f>
         <v>3.7655700000000181E-2</v>
       </c>
       <c r="E360">
-        <f t="shared" ref="E360:E361" si="86">IF(D360&lt;0,1,0)</f>
+        <f t="shared" ref="E360:E363" si="86">IF(D360&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -15596,8 +15634,46 @@
       </c>
     </row>
     <row r="362" spans="1:5">
+      <c r="A362" s="1">
+        <v>45280</v>
+      </c>
+      <c r="B362">
+        <v>4.32315</v>
+      </c>
       <c r="C362">
         <v>4.3047713999999999</v>
+      </c>
+      <c r="D362">
+        <f t="shared" si="85"/>
+        <v>1.8378600000000134E-2</v>
+      </c>
+      <c r="E362">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5">
+      <c r="A363" s="1">
+        <v>45281</v>
+      </c>
+      <c r="B363">
+        <v>4.34213</v>
+      </c>
+      <c r="C363">
+        <v>4.300592</v>
+      </c>
+      <c r="D363">
+        <f t="shared" si="85"/>
+        <v>4.1538000000000075E-2</v>
+      </c>
+      <c r="E363">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5">
+      <c r="C364">
+        <v>4.3351129999999998</v>
       </c>
     </row>
   </sheetData>
@@ -17819,7 +17895,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834FE7DF-43B4-4D1B-A998-41000ACCF054}">
   <dimension ref="A1:C59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B60" sqref="B60"/>
     </sheetView>
@@ -18486,11 +18562,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5667DBD-CFCB-4460-8FBE-056820554895}">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
+      <selection pane="bottomLeft" activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -18516,7 +18592,7 @@
       </c>
       <c r="E1" s="13">
         <f>AVERAGE(D2:D301)</f>
-        <v>1.010272124999998</v>
+        <v>1.108117911764704</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -18815,7 +18891,7 @@
         <v>75.922899999999998</v>
       </c>
       <c r="D17">
-        <f t="shared" ref="D17:D33" si="27">B17-C17</f>
+        <f t="shared" ref="D17:D35" si="27">B17-C17</f>
         <v>-1.0628990000000016</v>
       </c>
       <c r="E17" s="56">
@@ -18857,7 +18933,7 @@
         <v>3.2832009999999912</v>
       </c>
       <c r="E19" s="56">
-        <f t="shared" ref="E19:E33" si="28">D19/C19</f>
+        <f t="shared" ref="E19:E35" si="28">D19/C19</f>
         <v>4.4024428508597724E-2</v>
       </c>
     </row>
@@ -19128,8 +19204,46 @@
       </c>
     </row>
     <row r="34" spans="1:5">
+      <c r="A34" s="1">
+        <v>45280</v>
+      </c>
+      <c r="B34" s="58">
+        <v>73.440002000000007</v>
+      </c>
       <c r="C34">
         <v>71.343400000000003</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="27"/>
+        <v>2.0966020000000043</v>
+      </c>
+      <c r="E34" s="56">
+        <f t="shared" si="28"/>
+        <v>2.9387469618773483E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="1">
+        <v>45281</v>
+      </c>
+      <c r="B35" s="58">
+        <v>73.889999000000003</v>
+      </c>
+      <c r="C35">
+        <v>70.639300000000006</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="27"/>
+        <v>3.2506989999999973</v>
+      </c>
+      <c r="E35" s="56">
+        <f t="shared" si="28"/>
+        <v>4.6018278776828153E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="C36">
+        <v>71.102999999999994</v>
       </c>
     </row>
   </sheetData>
